--- a/Tables/region_drought_deltaAIC_global_updated.xlsx
+++ b/Tables/region_drought_deltaAIC_global_updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleybranch/Dropbox/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8530E8F-1F48-0145-AB27-247D5CA10E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB12CE-991E-1E4A-8E5F-3B19F179C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="17140" xr2:uid="{2A892CC7-2800-CA44-AEAF-7933B29DDD48}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="15980" xr2:uid="{2A892CC7-2800-CA44-AEAF-7933B29DDD48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -177,6 +177,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C570319F-587C-AC49-B3DA-5D8DEC723E7D}">
   <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +614,7 @@
       <c r="C5" s="3">
         <v>17.611267947481799</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="3">
@@ -621,7 +627,7 @@
       <c r="H5" s="3">
         <v>14.770440616867701</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="11">
         <v>1.13589171075637</v>
       </c>
       <c r="J5" s="3">
@@ -647,7 +653,7 @@
       <c r="R5" s="3">
         <v>17.141940686277401</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="11">
         <v>0.36255334092947999</v>
       </c>
       <c r="T5" s="3">
@@ -677,7 +683,7 @@
       <c r="H6" s="3">
         <v>15.3272322050921</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="11">
         <v>1.82375687182684</v>
       </c>
       <c r="J6" s="3">
@@ -703,7 +709,7 @@
       <c r="R6" s="3">
         <v>16.688389326211102</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="11">
         <v>1.42444598300563</v>
       </c>
       <c r="T6" s="3">
@@ -733,7 +739,7 @@
       <c r="H7" s="3">
         <v>15.1854309675737</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="11">
         <v>0</v>
       </c>
       <c r="J7" s="3">
@@ -746,7 +752,7 @@
       <c r="M7" s="3">
         <v>14.379756112170099</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="11">
         <v>0</v>
       </c>
       <c r="O7" s="3">
@@ -759,7 +765,7 @@
       <c r="R7" s="3">
         <v>16.2858216891618</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="11">
         <v>1.2799083813197301</v>
       </c>
       <c r="T7" s="3">
@@ -815,7 +821,7 @@
       <c r="R8" s="3">
         <v>18.2603959608882</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="11">
         <v>0</v>
       </c>
       <c r="T8" s="3">
@@ -871,7 +877,7 @@
       <c r="R9" s="5">
         <v>18.6064116983198</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="12">
         <v>1.49539869987439</v>
       </c>
       <c r="T9" s="5">
@@ -980,7 +986,7 @@
       <c r="C14" s="3">
         <v>13.615418614544099</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="11">
         <v>1.95006843296051</v>
       </c>
       <c r="E14" s="3">
@@ -993,7 +999,7 @@
       <c r="H14" s="3">
         <v>13.032578034068599</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="11">
         <v>2.8860583096957299E-2</v>
       </c>
       <c r="J14" s="3">
@@ -1006,7 +1012,7 @@
       <c r="M14" s="3">
         <v>13.409713355697001</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="11">
         <v>1.0399743320522199</v>
       </c>
       <c r="O14" s="3">
@@ -1019,7 +1025,7 @@
       <c r="R14" s="3">
         <v>13.750540517078701</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="11">
         <v>0.80979754270219895</v>
       </c>
       <c r="T14" s="3">
@@ -1036,7 +1042,7 @@
       <c r="C15" s="3">
         <v>14.0429525468462</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="11">
         <v>1.93261418285783</v>
       </c>
       <c r="E15" s="3">
@@ -1049,7 +1055,7 @@
       <c r="H15" s="3">
         <v>11.806370879367</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="11">
         <v>0.66093669284464296</v>
       </c>
       <c r="J15" s="3">
@@ -1062,7 +1068,7 @@
       <c r="M15" s="3">
         <v>13.9119010598142</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="11">
         <v>0</v>
       </c>
       <c r="O15" s="3">
@@ -1092,7 +1098,7 @@
       <c r="C16" s="3">
         <v>13.8964290617741</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="11">
         <v>0</v>
       </c>
       <c r="E16" s="3">
@@ -1105,7 +1111,7 @@
       <c r="H16" s="3">
         <v>12.515753837637901</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="11">
         <v>0</v>
       </c>
       <c r="J16" s="3">
@@ -1118,7 +1124,7 @@
       <c r="M16" s="3">
         <v>13.9805470799138</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="11">
         <v>1.38832166886914</v>
       </c>
       <c r="O16" s="3">
@@ -1131,7 +1137,7 @@
       <c r="R16" s="3">
         <v>12.415741886072301</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="11">
         <v>0</v>
       </c>
       <c r="T16" s="3">
@@ -1161,7 +1167,7 @@
       <c r="H17" s="3">
         <v>13.461566228382701</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="11">
         <v>1.2062345384883899</v>
       </c>
       <c r="J17" s="3">
@@ -1204,7 +1210,7 @@
       <c r="C18" s="5">
         <v>13.527685763097899</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="12">
         <v>1.31721893131999</v>
       </c>
       <c r="E18" s="5">
@@ -1217,7 +1223,7 @@
       <c r="H18" s="5">
         <v>14.266685571215</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="12">
         <v>0.87096133733484704</v>
       </c>
       <c r="J18" s="5">
@@ -1399,10 +1405,10 @@
       <c r="M23" s="3">
         <v>13.8141891177315</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="11">
         <v>0</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="11">
         <v>0.237275921275796</v>
       </c>
       <c r="P23" s="3"/>
@@ -1412,7 +1418,7 @@
       <c r="R23" s="3">
         <v>12.4709829402914</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="11">
         <v>0.2453671706362</v>
       </c>
       <c r="T23" s="3">
@@ -1430,7 +1436,7 @@
       <c r="C24" s="3">
         <v>10.1312320135989</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="11">
         <v>0</v>
       </c>
       <c r="E24" s="3">
@@ -1456,7 +1462,7 @@
       <c r="M24" s="3">
         <v>14.841070200495301</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="11">
         <v>1.6825117343473699</v>
       </c>
       <c r="O24" s="3">
@@ -1469,7 +1475,7 @@
       <c r="R24" s="3">
         <v>12.2779601886914</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="11">
         <v>2.50308415165819E-2</v>
       </c>
       <c r="T24" s="3">
@@ -1487,7 +1493,7 @@
       <c r="C25" s="3">
         <v>16.840650972624601</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="11">
         <v>0.61247250315591395</v>
       </c>
       <c r="E25" s="3">
@@ -1500,7 +1506,7 @@
       <c r="H25" s="3">
         <v>16.572923877514299</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="11">
         <v>0</v>
       </c>
       <c r="J25" s="3">
@@ -1513,7 +1519,7 @@
       <c r="M25" s="3">
         <v>14.6446386835614</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="11">
         <v>1.9242031777139299</v>
       </c>
       <c r="O25" s="3">
@@ -1526,7 +1532,7 @@
       <c r="R25" s="3">
         <v>13.2745139814865</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="11">
         <v>0</v>
       </c>
       <c r="T25" s="3">
@@ -1570,7 +1576,7 @@
       <c r="M26" s="3">
         <v>15.715239801148099</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="11">
         <v>1.4516872378285399</v>
       </c>
       <c r="O26" s="3">
@@ -1583,7 +1589,7 @@
       <c r="R26" s="3">
         <v>12.867918803534399</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="11">
         <v>1.3713263151726101</v>
       </c>
       <c r="T26" s="3">
@@ -1614,7 +1620,7 @@
       <c r="H27" s="5">
         <v>14.8869350558743</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="12">
         <v>0.278713269774926</v>
       </c>
       <c r="J27" s="5">
@@ -1640,7 +1646,7 @@
       <c r="R27" s="5">
         <v>13.085845228741601</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="12">
         <v>1.5928861787970201</v>
       </c>
       <c r="T27" s="5">

--- a/Tables/region_drought_deltaAIC_global_updated.xlsx
+++ b/Tables/region_drought_deltaAIC_global_updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleybranch/Dropbox/Rapid_drought/Paper 3/climate_lag/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB12CE-991E-1E4A-8E5F-3B19F179C591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EA4C82-F5E6-EE4B-A480-DE8CC3880707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="15980" xr2:uid="{2A892CC7-2800-CA44-AEAF-7933B29DDD48}"/>
   </bookViews>
@@ -176,13 +176,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C570319F-587C-AC49-B3DA-5D8DEC723E7D}">
   <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,33 +522,33 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
@@ -614,7 +614,7 @@
       <c r="C5" s="3">
         <v>17.611267947481799</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
       <c r="E5" s="3">
@@ -627,7 +627,7 @@
       <c r="H5" s="3">
         <v>14.770440616867701</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>1.13589171075637</v>
       </c>
       <c r="J5" s="3">
@@ -653,7 +653,7 @@
       <c r="R5" s="3">
         <v>17.141940686277401</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <v>0.36255334092947999</v>
       </c>
       <c r="T5" s="3">
@@ -683,7 +683,7 @@
       <c r="H6" s="3">
         <v>15.3272322050921</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>1.82375687182684</v>
       </c>
       <c r="J6" s="3">
@@ -709,7 +709,7 @@
       <c r="R6" s="3">
         <v>16.688389326211102</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="10">
         <v>1.42444598300563</v>
       </c>
       <c r="T6" s="3">
@@ -739,7 +739,7 @@
       <c r="H7" s="3">
         <v>15.1854309675737</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>0</v>
       </c>
       <c r="J7" s="3">
@@ -752,7 +752,7 @@
       <c r="M7" s="3">
         <v>14.379756112170099</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>0</v>
       </c>
       <c r="O7" s="3">
@@ -765,7 +765,7 @@
       <c r="R7" s="3">
         <v>16.2858216891618</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="10">
         <v>1.2799083813197301</v>
       </c>
       <c r="T7" s="3">
@@ -821,7 +821,7 @@
       <c r="R8" s="3">
         <v>18.2603959608882</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="10">
         <v>0</v>
       </c>
       <c r="T8" s="3">
@@ -877,7 +877,7 @@
       <c r="R9" s="5">
         <v>18.6064116983198</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="11">
         <v>1.49539869987439</v>
       </c>
       <c r="T9" s="5">
@@ -894,33 +894,33 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
@@ -986,7 +986,7 @@
       <c r="C14" s="3">
         <v>13.615418614544099</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>1.95006843296051</v>
       </c>
       <c r="E14" s="3">
@@ -999,7 +999,7 @@
       <c r="H14" s="3">
         <v>13.032578034068599</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>2.8860583096957299E-2</v>
       </c>
       <c r="J14" s="3">
@@ -1012,7 +1012,7 @@
       <c r="M14" s="3">
         <v>13.409713355697001</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>1.0399743320522199</v>
       </c>
       <c r="O14" s="3">
@@ -1025,7 +1025,7 @@
       <c r="R14" s="3">
         <v>13.750540517078701</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="10">
         <v>0.80979754270219895</v>
       </c>
       <c r="T14" s="3">
@@ -1042,7 +1042,7 @@
       <c r="C15" s="3">
         <v>14.0429525468462</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>1.93261418285783</v>
       </c>
       <c r="E15" s="3">
@@ -1055,7 +1055,7 @@
       <c r="H15" s="3">
         <v>11.806370879367</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0.66093669284464296</v>
       </c>
       <c r="J15" s="3">
@@ -1068,7 +1068,7 @@
       <c r="M15" s="3">
         <v>13.9119010598142</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <v>0</v>
       </c>
       <c r="O15" s="3">
@@ -1098,7 +1098,7 @@
       <c r="C16" s="3">
         <v>13.8964290617741</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
       <c r="E16" s="3">
@@ -1111,7 +1111,7 @@
       <c r="H16" s="3">
         <v>12.515753837637901</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>0</v>
       </c>
       <c r="J16" s="3">
@@ -1124,7 +1124,7 @@
       <c r="M16" s="3">
         <v>13.9805470799138</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>1.38832166886914</v>
       </c>
       <c r="O16" s="3">
@@ -1137,7 +1137,7 @@
       <c r="R16" s="3">
         <v>12.415741886072301</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="10">
         <v>0</v>
       </c>
       <c r="T16" s="3">
@@ -1167,7 +1167,7 @@
       <c r="H17" s="3">
         <v>13.461566228382701</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>1.2062345384883899</v>
       </c>
       <c r="J17" s="3">
@@ -1210,7 +1210,7 @@
       <c r="C18" s="5">
         <v>13.527685763097899</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>1.31721893131999</v>
       </c>
       <c r="E18" s="5">
@@ -1223,7 +1223,7 @@
       <c r="H18" s="5">
         <v>14.266685571215</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>0.87096133733484704</v>
       </c>
       <c r="J18" s="5">
@@ -1287,33 +1287,33 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="10" t="s">
+      <c r="Q21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
@@ -1405,10 +1405,10 @@
       <c r="M23" s="3">
         <v>13.8141891177315</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="10">
         <v>0</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="10">
         <v>0.237275921275796</v>
       </c>
       <c r="P23" s="3"/>
@@ -1418,7 +1418,7 @@
       <c r="R23" s="3">
         <v>12.4709829402914</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="10">
         <v>0.2453671706362</v>
       </c>
       <c r="T23" s="3">
@@ -1436,7 +1436,7 @@
       <c r="C24" s="3">
         <v>10.1312320135989</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>0</v>
       </c>
       <c r="E24" s="3">
@@ -1462,7 +1462,7 @@
       <c r="M24" s="3">
         <v>14.841070200495301</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="10">
         <v>1.6825117343473699</v>
       </c>
       <c r="O24" s="3">
@@ -1475,7 +1475,7 @@
       <c r="R24" s="3">
         <v>12.2779601886914</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="10">
         <v>2.50308415165819E-2</v>
       </c>
       <c r="T24" s="3">
@@ -1493,7 +1493,7 @@
       <c r="C25" s="3">
         <v>16.840650972624601</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>0.61247250315591395</v>
       </c>
       <c r="E25" s="3">
@@ -1506,7 +1506,7 @@
       <c r="H25" s="3">
         <v>16.572923877514299</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>0</v>
       </c>
       <c r="J25" s="3">
@@ -1519,7 +1519,7 @@
       <c r="M25" s="3">
         <v>14.6446386835614</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="10">
         <v>1.9242031777139299</v>
       </c>
       <c r="O25" s="3">
@@ -1532,7 +1532,7 @@
       <c r="R25" s="3">
         <v>13.2745139814865</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="10">
         <v>0</v>
       </c>
       <c r="T25" s="3">
@@ -1576,7 +1576,7 @@
       <c r="M26" s="3">
         <v>15.715239801148099</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="10">
         <v>1.4516872378285399</v>
       </c>
       <c r="O26" s="3">
@@ -1589,7 +1589,7 @@
       <c r="R26" s="3">
         <v>12.867918803534399</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="10">
         <v>1.3713263151726101</v>
       </c>
       <c r="T26" s="3">
@@ -1620,7 +1620,7 @@
       <c r="H27" s="5">
         <v>14.8869350558743</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <v>0.278713269774926</v>
       </c>
       <c r="J27" s="5">
@@ -1646,7 +1646,7 @@
       <c r="R27" s="5">
         <v>13.085845228741601</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="11">
         <v>1.5928861787970201</v>
       </c>
       <c r="T27" s="5">

--- a/Tables/region_drought_deltaAIC_global_updated.xlsx
+++ b/Tables/region_drought_deltaAIC_global_updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EA4C82-F5E6-EE4B-A480-DE8CC3880707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60825406-09BD-ED41-8F93-561DA3A0FEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="15980" xr2:uid="{2A892CC7-2800-CA44-AEAF-7933B29DDD48}"/>
+    <workbookView xWindow="520" yWindow="960" windowWidth="28560" windowHeight="15980" xr2:uid="{2A892CC7-2800-CA44-AEAF-7933B29DDD48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -117,12 +115,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -157,32 +161,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -501,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C570319F-587C-AC49-B3DA-5D8DEC723E7D}">
   <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,1146 +521,1223 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="12" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="12" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="7" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="10">
         <v>2.4291141757594201</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="10">
         <v>17.611267947481799</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="10">
         <v>9.2796382556543904</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>4.7729706494224002</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="10">
         <v>14.770440616867701</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
         <v>1.13589171075637</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="10">
         <v>6.71763825056951</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10">
         <v>8.89093726174724</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="10">
         <v>18.855426741261901</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="10">
         <v>3.9917833565978098</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="10">
         <v>9.6623004431876307</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10">
         <v>7.2010549165779603</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="10">
         <v>17.141940686277401</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="11">
         <v>0.36255334092947999</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="10">
         <v>8.0252052505211395</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>9.0423883180146696</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="10">
         <v>18.6394024752672</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="10">
         <v>3.9380489294480898</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="10">
         <v>9.3279109908917199</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
         <v>6.3147398863952704</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="10">
         <v>15.3272322050921</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="11">
         <v>1.82375687182684</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="10">
         <v>6.1545428090935301</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
         <v>9.2309202425785806</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="10">
         <v>17.8642156080587</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="10">
         <v>4.9718763963865102</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="10">
         <v>9.4746664568374399</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10">
         <v>6.9714319040131203</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="10">
         <v>16.688389326211102</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="11">
         <v>1.42444598300563</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="10">
         <v>7.8643518815506503</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <v>8.6132631154596293</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="10">
         <v>15.126358630782301</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="10">
         <v>3.26608819347621</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="10">
         <v>8.3064697845566098</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>5.9979762589887304</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="10">
         <v>15.1854309675737</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>0</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="10">
         <v>5.4860227831013599</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10">
         <v>6.4957473360536797</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="10">
         <v>14.379756112170099</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="11">
         <v>0</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="10">
         <v>6.99716676540538</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10">
         <v>7.1930248270387001</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="10">
         <v>16.2858216891618</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="11">
         <v>1.2799083813197301</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="10">
         <v>5.9303665660668203</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>8.2424352278585502</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="10">
         <v>19.469418746324699</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="10">
         <v>4.9206142049288202</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="10">
         <v>10.6922030260785</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <v>7.0923490201889798</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="10">
         <v>17.174374448322901</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="10">
         <v>2.6398052509857699</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="10">
         <v>8.1216036366408808</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10">
         <v>9.6346294649165394</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="10">
         <v>19.340239022988499</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="10">
         <v>5.6209105967955102</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="10">
         <v>10.8108244634223</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10">
         <v>7.3752861663897402</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="10">
         <v>18.2603959608882</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="11">
         <v>0</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="10">
         <v>9.1497575839030105</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="13">
         <v>9.2048489989856499</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="13">
         <v>20.0811687173873</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="13">
         <v>5.2823200064985896</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="13">
         <v>11.1697531829568</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5">
+      <c r="F9" s="10"/>
+      <c r="G9" s="13">
         <v>7.4747571965240196</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="13">
         <v>17.480964615626799</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="13">
         <v>2.3435294876703701</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="13">
         <v>8.6052728936428995</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="5">
+      <c r="K9" s="10"/>
+      <c r="L9" s="13">
         <v>10.4321322990972</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="13">
         <v>20.2764998022922</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="13">
         <v>5.31001996500527</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="13">
         <v>11.274762160243901</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="5">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="13">
         <v>7.8260270805531</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="13">
         <v>18.6064116983198</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="14">
         <v>1.49539869987439</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="13">
         <v>9.5038804213563708</v>
       </c>
     </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="12" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="12" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="12" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="7" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="7" t="s">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="10">
         <v>4.0835585724880703</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="10">
         <v>13.615418614544099</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>1.95006843296051</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="10">
         <v>3.9761502979799799</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
         <v>4.6025431309312799</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="10">
         <v>13.032578034068599</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="11">
         <v>2.8860583096957299E-2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="10">
         <v>3.9573484252250601</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10">
         <v>4.8715629236476197</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="10">
         <v>13.409713355697001</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="11">
         <v>1.0399743320522199</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="10">
         <v>4.9446579866089504</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10">
         <v>5.4613716596704798</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="10">
         <v>13.750540517078701</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14" s="11">
         <v>0.80979754270219895</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="10">
         <v>6.1140351785893499</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="10">
         <v>4.9369872498164096</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="10">
         <v>14.0429525468462</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <v>1.93261418285783</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="10">
         <v>3.2373876986384902</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
         <v>4.7842219120557301</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="10">
         <v>11.806370879367</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="11">
         <v>0.66093669284464296</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="10">
         <v>3.99214060563554</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10">
         <v>5.3084349305718197</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="10">
         <v>13.9119010598142</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="11">
         <v>0</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="10">
         <v>4.8554208587975198</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3">
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10">
         <v>7.1420703774856502</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="10">
         <v>15.2926830807664</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="10">
         <v>2.95567289893097</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="10">
         <v>4.9533334701714002</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="10">
         <v>2.7101643380701699</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="10">
         <v>13.8964290617741</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="10">
         <v>3.7141602232022701</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
         <v>4.3370387856894004</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="10">
         <v>12.515753837637901</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="11">
         <v>0</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="10">
         <v>3.3936761924756</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10">
         <v>5.7886655868896897</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="10">
         <v>13.9805470799138</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="11">
         <v>1.38832166886914</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="10">
         <v>4.47700474407611</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3">
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10">
         <v>4.4593251878682203</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="10">
         <v>12.415741886072301</v>
       </c>
-      <c r="S16" s="10">
+      <c r="S16" s="11">
         <v>0</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="10">
         <v>3.8360343529102501</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="10">
         <v>4.6119611014973998</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="10">
         <v>14.603559716561</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="10">
         <v>2.5091283850270001</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="10">
         <v>4.2981804324417698</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10">
         <v>5.6726816644668396</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="10">
         <v>13.461566228382701</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="11">
         <v>1.2062345384883899</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="10">
         <v>5.1210451316792396</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10">
         <v>6.6789033586928799</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="10">
         <v>14.659983160811001</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="10">
         <v>2.1494029156810899</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="10">
         <v>6.2485514942991403</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3">
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10">
         <v>7.6985593453241599</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="10">
         <v>15.644612457009799</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="10">
         <v>2.5630932108670099</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="10">
         <v>7.5973026645533501</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="13">
         <v>3.5533393854402702</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="13">
         <v>13.527685763097899</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="14">
         <v>1.31721893131999</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="13">
         <v>5.0841544604518303</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5">
+      <c r="F18" s="10"/>
+      <c r="G18" s="13">
         <v>6.0091446378742104</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="13">
         <v>14.266685571215</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="14">
         <v>0.87096133733484704</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="13">
         <v>5.6779525899946703</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="5">
+      <c r="K18" s="10"/>
+      <c r="L18" s="13">
         <v>7.30743572119263</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="13">
         <v>15.1193946330513</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="13">
         <v>2.2915096913820898</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="13">
         <v>6.8410791139567699</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="5">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="13">
         <v>8.6331999944800408</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="13">
         <v>16.290363548185301</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="13">
         <v>4.0465918337481499</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="13">
         <v>7.8574587909802203</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="12" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="12" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="12" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="7" t="s">
+      <c r="K22" s="2"/>
+      <c r="L22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="7" t="s">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="T22" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="10">
         <v>8.1829471622327201</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="10">
         <v>15.864293723469499</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="10">
         <v>4.2835652742155599</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="10">
         <v>7.58014051918917</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10">
         <v>7.9258326103272303</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="10">
         <v>15.169157695615899</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="10">
         <v>3.4498758960385199</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="10">
         <v>7.6419017426924301</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10">
         <v>2.7192626524333701</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="10">
         <v>13.8141891177315</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="11">
         <v>0</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="11">
         <v>0.237275921275796</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3">
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10">
         <v>3.7384017507756702</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="10">
         <v>12.4709829402914</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="11">
         <v>0.2453671706362</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="10">
         <v>2.9855469957001302</v>
       </c>
-      <c r="U23" s="3"/>
+      <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="10">
         <v>4.1082817161150196</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="10">
         <v>10.1312320135989</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="10">
         <v>5.5536026376235004</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
         <v>7.5176306375897202</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="10">
         <v>15.144032420527299</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="10">
         <v>2.3033362351502502</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="10">
         <v>7.2584370472263799</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10">
         <v>5.5008357263709504</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="10">
         <v>14.841070200495301</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="11">
         <v>1.6825117343473699</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="10">
         <v>5.1985595654368799</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3">
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10">
         <v>3.49562036164571</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="10">
         <v>12.2779601886914</v>
       </c>
-      <c r="S24" s="10">
+      <c r="S24" s="11">
         <v>2.50308415165819E-2</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="10">
         <v>3.52540901729571</v>
       </c>
-      <c r="U24" s="3"/>
+      <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="10">
         <v>4.4892640552893699</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="10">
         <v>16.840650972624601</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <v>0.61247250315591395</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="10">
         <v>6.1624417320445</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10">
         <v>6.8179433850300502</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="10">
         <v>16.572923877514299</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="11">
         <v>0</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="10">
         <v>6.7392859892556798</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10">
         <v>5.38770779116612</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="10">
         <v>14.6446386835614</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="11">
         <v>1.9242031777139299</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="10">
         <v>4.5491921362558996</v>
       </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3">
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10">
         <v>3.53353241269815</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="10">
         <v>13.2745139814865</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S25" s="11">
         <v>0</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="10">
         <v>2.6603163200384201</v>
       </c>
-      <c r="U25" s="3"/>
+      <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="10">
         <v>8.5899098906547806</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="10">
         <v>11.7215686617883</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="10">
         <v>4.5939430257758396</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="10">
         <v>7.8968262216499197</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10">
         <v>8.9744133856856898</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="10">
         <v>14.932415489637201</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="10">
         <v>2.8934396006679899</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="10">
         <v>8.8226314740018097</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3">
+      <c r="K26" s="10"/>
+      <c r="L26" s="10">
         <v>5.2962994947242796</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="10">
         <v>15.715239801148099</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="11">
         <v>1.4516872378285399</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="10">
         <v>4.8128598823145703</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3">
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10">
         <v>5.2483331068410699</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="10">
         <v>12.867918803534399</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="11">
         <v>1.3713263151726101</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="10">
         <v>4.8135389626695497</v>
       </c>
-      <c r="U26" s="3"/>
+      <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="13">
         <v>7.4629918399491499</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="13">
         <v>11.8127698372714</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="13">
         <v>2.9415045926666599</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="13">
         <v>8.1489744652972096</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="5">
+      <c r="F27" s="10"/>
+      <c r="G27" s="13">
         <v>9.1098759614310403</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="13">
         <v>14.8869350558743</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="14">
         <v>0.278713269774926</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="13">
         <v>9.2709088011861205</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="5">
+      <c r="K27" s="10"/>
+      <c r="L27" s="13">
         <v>5.8397370123320798</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="13">
         <v>16.0870748030529</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="13">
         <v>2.2281506668477999</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="13">
         <v>5.7228833628523699</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="5">
+      <c r="P27" s="10"/>
+      <c r="Q27" s="13">
         <v>5.4558418793290002</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="13">
         <v>13.085845228741601</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="14">
         <v>1.5928861787970201</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="13">
         <v>5.1539664170240904</v>
       </c>
-      <c r="U27" s="3"/>
+      <c r="U27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
